--- a/data/countries/cuba.xlsx
+++ b/data/countries/cuba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE574B7C-6AB4-D14D-94C8-2BE5813958F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB086A6B-F085-6D40-B3D3-FB6C7D401098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32500" yWindow="700" windowWidth="18380" windowHeight="26460" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="2" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>General</t>
   </si>
@@ -122,9 +130,6 @@
     <t>Mo. Volume</t>
   </si>
   <si>
-    <t>2020-2021 (yearly and monthly)</t>
-  </si>
-  <si>
     <t>mo</t>
   </si>
   <si>
@@ -171,6 +176,9 @@
   </si>
   <si>
     <t>Cuba</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly and monthly)</t>
   </si>
 </sst>
 </file>
@@ -297,8 +305,10 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -616,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CC475-90E8-AE41-9E12-080CDE43B3C3}">
   <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -654,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -685,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -720,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -736,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -744,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -752,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -760,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -771,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -787,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -795,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -803,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -811,7 +821,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
@@ -822,7 +832,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
@@ -838,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -846,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
@@ -854,20 +864,21 @@
         <v>11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>46</v>
+      <c r="E28" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{9449403B-AF30-0B4C-BEB2-AE3A27698133}"/>
+    <hyperlink ref="E28" r:id="rId2" xr:uid="{B813548E-16FE-1941-AED2-E144F584DB69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -878,7 +889,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,8 +1252,31 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>145989</v>
+      </c>
+      <c r="G14">
+        <v>208</v>
+      </c>
+      <c r="H14">
+        <f>G14/F14</f>
+        <v>1.4247648795457193E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15" s="14"/>
@@ -1347,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B6ADF3-96CB-6944-8E0B-4B25D12CE531}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,12 +1390,12 @@
     <col min="1" max="1" width="10.83203125" style="15"/>
     <col min="2" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>24</v>
@@ -1389,7 +1423,7 @@
       <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1406,7 +1440,7 @@
       <c r="D3" s="13">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1423,7 +1457,7 @@
       <c r="D4" s="13">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1440,7 +1474,7 @@
       <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1457,7 +1491,7 @@
       <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1508,7 @@
       <c r="D7" s="13">
         <v>0</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1491,7 +1525,7 @@
       <c r="D8" s="13">
         <v>0</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1508,7 +1542,7 @@
       <c r="D9" s="13">
         <v>0</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1525,7 +1559,7 @@
       <c r="D10" s="13">
         <v>0</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1542,7 +1576,7 @@
       <c r="D11" s="13">
         <v>0</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1559,7 +1593,7 @@
       <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1576,7 +1610,7 @@
       <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1587,13 +1621,13 @@
       <c r="B14" s="13">
         <v>393700</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1604,13 +1638,13 @@
       <c r="B15" s="13">
         <v>398900</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1627,7 +1661,7 @@
       <c r="D16">
         <v>6</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16">
         <f>D16/C16</f>
         <v>3.2258064516129031E-2</v>
       </c>
@@ -1645,8 +1679,8 @@
       <c r="D17">
         <v>55</v>
       </c>
-      <c r="E17" s="17">
-        <f t="shared" ref="E17:E37" si="0">D17/C17</f>
+      <c r="E17">
+        <f t="shared" ref="E17:E49" si="0">D17/C17</f>
         <v>4.1825095057034217E-2</v>
       </c>
     </row>
@@ -1663,7 +1697,7 @@
       <c r="D18">
         <v>22</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>4.0441176470588237E-2</v>
       </c>
@@ -1681,7 +1715,7 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>1.0135135135135136E-2</v>
       </c>
@@ -1699,7 +1733,7 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>3.7453183520599251E-3</v>
       </c>
@@ -1717,7 +1751,7 @@
       <c r="D21">
         <v>7</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>4.9157303370786515E-3</v>
       </c>
@@ -1735,7 +1769,7 @@
       <c r="D22">
         <v>28</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>1.7891373801916934E-2</v>
       </c>
@@ -1753,7 +1787,7 @@
       <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23">
         <f t="shared" si="0"/>
         <v>4.6511627906976744E-3</v>
       </c>
@@ -1771,7 +1805,7 @@
       <c r="D24">
         <v>7</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>5.0107372942018611E-3</v>
       </c>
@@ -1789,7 +1823,7 @@
       <c r="D25">
         <v>11</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25">
         <f t="shared" si="0"/>
         <v>3.073484213467449E-3</v>
       </c>
@@ -1807,7 +1841,7 @@
       <c r="D26">
         <v>68</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>4.5874654253524926E-3</v>
       </c>
@@ -1825,7 +1859,7 @@
       <c r="D27">
         <v>108</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>4.6767418698306848E-3</v>
       </c>
@@ -1843,7 +1877,7 @@
       <c r="D28">
         <v>102</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>4.002511379689217E-3</v>
       </c>
@@ -1861,7 +1895,7 @@
       <c r="D29">
         <v>220</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>6.9965653224780561E-3</v>
       </c>
@@ -1879,7 +1913,7 @@
       <c r="D30">
         <v>314</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>8.8303945555274332E-3</v>
       </c>
@@ -1897,7 +1931,7 @@
       <c r="D31">
         <v>326</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>6.6903359533728732E-3</v>
       </c>
@@ -1915,7 +1949,7 @@
       <c r="D32">
         <v>1474</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>7.6135183855622068E-3</v>
       </c>
@@ -1933,7 +1967,7 @@
       <c r="D33">
         <v>2545</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>9.4871001532101443E-3</v>
       </c>
@@ -1951,7 +1985,7 @@
       <c r="D34">
         <v>2133</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>9.4980251410454498E-3</v>
       </c>
@@ -1969,7 +2003,7 @@
       <c r="D35">
         <v>800</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>1.0727743285103187E-2</v>
       </c>
@@ -1987,7 +2021,7 @@
       <c r="D36">
         <v>68</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>6.4854554124940391E-3</v>
       </c>
@@ -2005,78 +2039,90 @@
       <c r="D37">
         <v>18</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>5.1165434906196702E-3</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="17"/>
+    </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
